--- a/RECEPCION.xlsx
+++ b/RECEPCION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C76D3D-C4C1-44B0-8356-FC6D46FC7403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA53C78-E521-4859-8ADF-783094A51B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6528" yWindow="468" windowWidth="15804" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>CONTRASEÑAS</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Castro Pacahuala</t>
+  </si>
+  <si>
+    <t>Lozada Montenegro</t>
   </si>
 </sst>
 </file>
@@ -418,40 +430,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>86754325</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>56768392</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
